--- a/Data/2012.xlsx
+++ b/Data/2012.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="266">
   <si>
     <t>State</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Total Vote</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -812,7 +806,22 @@
     <t>EV_R</t>
   </si>
   <si>
-    <t>D</t>
+    <t>D_Percen</t>
+  </si>
+  <si>
+    <t>R_Percen</t>
+  </si>
+  <si>
+    <t>Other_Percen</t>
+  </si>
+  <si>
+    <t>D_Actual</t>
+  </si>
+  <si>
+    <t>R_Actual</t>
+  </si>
+  <si>
+    <t>Other_Actual</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1176,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,36 +1194,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -1226,13 +1235,13 @@
         <v>2074338</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="H2" s="4">
         <v>795696</v>
@@ -1241,12 +1250,12 @@
         <v>1255925</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1258,13 +1267,13 @@
         <v>300495</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="4">
         <v>122640</v>
@@ -1273,12 +1282,12 @@
         <v>164676</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1290,13 +1299,13 @@
         <v>2306559</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="4">
         <v>1025232</v>
@@ -1305,12 +1314,12 @@
         <v>1233654</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -1322,13 +1331,13 @@
         <v>1069468</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="4">
         <v>394409</v>
@@ -1337,12 +1346,12 @@
         <v>647744</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4">
         <v>55</v>
@@ -1354,13 +1363,13 @@
         <v>13055815</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="4">
         <v>7854285</v>
@@ -1369,12 +1378,12 @@
         <v>4839958</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
         <v>9</v>
@@ -1386,13 +1395,13 @@
         <v>2571846</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>1323102</v>
@@ -1401,12 +1410,12 @@
         <v>1185243</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -1418,13 +1427,13 @@
         <v>1558993</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="4">
         <v>905109</v>
@@ -1433,12 +1442,12 @@
         <v>634899</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
@@ -1450,13 +1459,13 @@
         <v>413921</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="4">
         <v>242584</v>
@@ -1465,12 +1474,12 @@
         <v>165484</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -1482,13 +1491,13 @@
         <v>293764</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H10" s="4">
         <v>267070</v>
@@ -1497,12 +1506,12 @@
         <v>21381</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4">
         <v>29</v>
@@ -1514,13 +1523,13 @@
         <v>8492175</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="H11" s="4">
         <v>4237756</v>
@@ -1529,12 +1538,12 @@
         <v>4163447</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1546,13 +1555,13 @@
         <v>3908369</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="H12" s="4">
         <v>1773827</v>
@@ -1561,12 +1570,12 @@
         <v>2078688</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4">
         <v>4</v>
@@ -1578,13 +1587,13 @@
         <v>434697</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="4">
         <v>306658</v>
@@ -1593,12 +1602,12 @@
         <v>121015</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -1610,13 +1619,13 @@
         <v>656742</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H14" s="4">
         <v>212787</v>
@@ -1625,12 +1634,12 @@
         <v>420911</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4">
         <v>20</v>
@@ -1642,13 +1651,13 @@
         <v>5251432</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="H15" s="4">
         <v>3019512</v>
@@ -1657,12 +1666,12 @@
         <v>2135216</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -1674,13 +1683,13 @@
         <v>2633143</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="4">
         <v>1154275</v>
@@ -1689,12 +1698,12 @@
         <v>1422872</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="4">
         <v>6</v>
@@ -1706,13 +1715,13 @@
         <v>1582180</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="4">
         <v>822544</v>
@@ -1721,12 +1730,12 @@
         <v>730617</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1738,13 +1747,13 @@
         <v>1157532</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H18" s="4">
         <v>439908</v>
@@ -1753,12 +1762,12 @@
         <v>689809</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1770,13 +1779,13 @@
         <v>1798048</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="4">
         <v>679370</v>
@@ -1785,12 +1794,12 @@
         <v>1087190</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -1802,13 +1811,13 @@
         <v>1994065</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="4">
         <v>809141</v>
@@ -1817,12 +1826,12 @@
         <v>1152262</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -1834,13 +1843,13 @@
         <v>713180</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="H21" s="4">
         <v>401306</v>
@@ -1849,12 +1858,12 @@
         <v>292276</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4">
         <v>10</v>
@@ -1866,13 +1875,13 @@
         <v>2707327</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H22" s="4">
         <v>1677844</v>
@@ -1881,12 +1890,12 @@
         <v>971869</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="4">
         <v>11</v>
@@ -1898,13 +1907,13 @@
         <v>3167767</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="H23" s="4">
         <v>1921761</v>
@@ -1913,12 +1922,12 @@
         <v>1188460</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" s="4">
         <v>16</v>
@@ -1930,13 +1939,13 @@
         <v>4745316</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="4">
         <v>2564569</v>
@@ -1945,12 +1954,12 @@
         <v>2115256</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" s="4">
         <v>10</v>
@@ -1962,13 +1971,13 @@
         <v>2936561</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="4">
         <v>1546167</v>
@@ -1977,12 +1986,12 @@
         <v>1320225</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -1994,13 +2003,13 @@
         <v>1285584</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="4">
         <v>562949</v>
@@ -2009,12 +2018,12 @@
         <v>710746</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -2026,13 +2035,13 @@
         <v>2763689</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="H27" s="4">
         <v>1223796</v>
@@ -2041,12 +2050,12 @@
         <v>1482440</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -2058,13 +2067,13 @@
         <v>484484</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="H28" s="4">
         <v>201839</v>
@@ -2073,12 +2082,12 @@
         <v>267928</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -2090,13 +2099,13 @@
         <v>794379</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="H29" s="4">
         <v>302081</v>
@@ -2105,12 +2114,12 @@
         <v>475064</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="4">
         <v>6</v>
@@ -2122,13 +2131,13 @@
         <v>1014918</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="H30" s="4">
         <v>531373</v>
@@ -2137,12 +2146,12 @@
         <v>463567</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" s="4">
         <v>4</v>
@@ -2154,13 +2163,13 @@
         <v>710972</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H31" s="4">
         <v>369561</v>
@@ -2169,12 +2178,12 @@
         <v>329918</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="4">
         <v>14</v>
@@ -2186,13 +2195,13 @@
         <v>3651140</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="H32" s="4">
         <v>2126610</v>
@@ -2201,12 +2210,12 @@
         <v>1478749</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" s="4">
         <v>5</v>
@@ -2218,13 +2227,13 @@
         <v>783757</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H33" s="4">
         <v>415335</v>
@@ -2233,12 +2242,12 @@
         <v>335788</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" s="4">
         <v>29</v>
@@ -2250,13 +2259,13 @@
         <v>7081536</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H34" s="4">
         <v>4485877</v>
@@ -2265,12 +2274,12 @@
         <v>2490496</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -2282,13 +2291,13 @@
         <v>4505372</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="H35" s="4">
         <v>2178391</v>
@@ -2297,12 +2306,12 @@
         <v>2270395</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2314,13 +2323,13 @@
         <v>322627</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="H36" s="4">
         <v>124827</v>
@@ -2329,12 +2338,12 @@
         <v>188163</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B37" s="4">
         <v>18</v>
@@ -2346,13 +2355,13 @@
         <v>5590934</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H37" s="4">
         <v>2827709</v>
@@ -2361,12 +2370,12 @@
         <v>2661437</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -2378,13 +2387,13 @@
         <v>1334872</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="H38" s="4">
         <v>443547</v>
@@ -2393,12 +2402,12 @@
         <v>891325</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
@@ -2410,13 +2419,13 @@
         <v>1789270</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="H39" s="4">
         <v>970488</v>
@@ -2425,12 +2434,12 @@
         <v>754175</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40" s="4">
         <v>20</v>
@@ -2442,13 +2451,13 @@
         <v>5755620</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="H40" s="4">
         <v>2990274</v>
@@ -2457,12 +2466,12 @@
         <v>2680434</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" s="4">
         <v>4</v>
@@ -2474,13 +2483,13 @@
         <v>446049</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="H41" s="4">
         <v>279677</v>
@@ -2489,12 +2498,12 @@
         <v>157204</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -2506,13 +2515,13 @@
         <v>1964118</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="H42" s="4">
         <v>865941</v>
@@ -2521,12 +2530,12 @@
         <v>1071645</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -2538,13 +2547,13 @@
         <v>363815</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="H43" s="4">
         <v>145039</v>
@@ -2553,12 +2562,12 @@
         <v>210610</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -2570,13 +2579,13 @@
         <v>2460904</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="H44" s="4">
         <v>960709</v>
@@ -2585,12 +2594,12 @@
         <v>1462330</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -2602,13 +2611,13 @@
         <v>7999657</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="H45" s="4">
         <v>3308124</v>
@@ -2617,12 +2626,12 @@
         <v>4569843</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -2634,13 +2643,13 @@
         <v>1020861</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="H46" s="4">
         <v>251813</v>
@@ -2649,12 +2658,12 @@
         <v>740600</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B47" s="4">
         <v>3</v>
@@ -2666,13 +2675,13 @@
         <v>299290</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="H47" s="4">
         <v>199239</v>
@@ -2681,12 +2690,12 @@
         <v>92698</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B48" s="4">
         <v>13</v>
@@ -2698,13 +2707,13 @@
         <v>3854489</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="H48" s="4">
         <v>1971820</v>
@@ -2713,12 +2722,12 @@
         <v>1822522</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B49" s="4">
         <v>12</v>
@@ -2730,13 +2739,13 @@
         <v>3145958</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="H49" s="4">
         <v>1755396</v>
@@ -2745,12 +2754,12 @@
         <v>1290670</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -2762,13 +2771,13 @@
         <v>672119</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="H50" s="4">
         <v>238269</v>
@@ -2777,12 +2786,12 @@
         <v>417655</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B51" s="4">
         <v>10</v>
@@ -2794,13 +2803,13 @@
         <v>3068434</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="H51" s="4">
         <v>1620985</v>
@@ -2809,12 +2818,12 @@
         <v>1407966</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -2826,13 +2835,13 @@
         <v>249061</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="H52" s="4">
         <v>69286</v>
@@ -2841,12 +2850,12 @@
         <v>170962</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B53" s="5">
         <v>332</v>
@@ -2858,13 +2867,13 @@
         <v>129237642</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="H53" s="5">
         <v>65918507</v>
@@ -2873,7 +2882,7 @@
         <v>60934407</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
